--- a/attendance-files/DV/DV Attendance - A.xlsx
+++ b/attendance-files/DV/DV Attendance - A.xlsx
@@ -602,7 +602,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d-mmm-yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -651,6 +651,11 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -893,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -986,6 +991,9 @@
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -6360,11 +6368,11 @@
       </c>
       <c r="E84" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="26">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G84" s="29" t="s">
         <v>30</v>
@@ -6381,8 +6389,8 @@
       <c r="K84" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L84" s="31" t="s">
-        <v>10</v>
+      <c r="L84" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="M84" s="29" t="s">
         <v>30</v>
@@ -6538,8 +6546,8 @@
       <c r="A87" s="26">
         <v>81.0</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="33"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="26" t="s">
         <v>10</v>
       </c>
@@ -6551,16 +6559,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
       <c r="Q87" s="32"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -6577,8 +6585,8 @@
       <c r="A88" s="26">
         <v>82.0</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="26" t="s">
         <v>10</v>
       </c>
@@ -6590,16 +6598,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
       <c r="Q88" s="32"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
@@ -6616,8 +6624,8 @@
       <c r="A89" s="26">
         <v>83.0</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="26" t="s">
         <v>10</v>
       </c>
@@ -6629,16 +6637,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
       <c r="Q89" s="32"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
@@ -6655,8 +6663,8 @@
       <c r="A90" s="26">
         <v>84.0</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="26" t="s">
         <v>10</v>
       </c>
@@ -6668,16 +6676,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
       <c r="Q90" s="32"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
@@ -6694,8 +6702,8 @@
       <c r="A91" s="26">
         <v>85.0</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="33"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="26" t="s">
         <v>10</v>
       </c>
@@ -6707,16 +6715,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
       <c r="Q91" s="32"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
@@ -6733,8 +6741,8 @@
       <c r="A92" s="26">
         <v>86.0</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="26" t="s">
         <v>10</v>
       </c>
@@ -6746,16 +6754,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
       <c r="Q92" s="32"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
@@ -6769,22 +6777,22 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="36"/>
-      <c r="P93" s="36"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
       <c r="S93" s="6"/>
